--- a/templates/組長歷史查詢結果(海運).xlsx
+++ b/templates/組長歷史查詢結果(海運).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0F539D-0C08-4CB1-81C7-3180CB996F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C776C-6514-4911-B950-B895502497C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>進口日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>行家</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -113,6 +109,10 @@
   <si>
     <t>${table:data.O_OL_POST}</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>報機日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,72 +516,72 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/templates/組長歷史查詢結果(海運).xlsx
+++ b/templates/組長歷史查詢結果(海運).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C776C-6514-4911-B950-B895502497C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B411F57-CAA1-44B9-9BD4-C017431D8397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>行家</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>海關通關號碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>船機代碼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -113,6 +109,42 @@
   <si>
     <t>報機日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通關號碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>船公司代碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸存地點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫存地點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_OL_MVNO}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_OL_COMPID}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_OL_ARRLOCATIONID}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.O_OL_PACKAGELOCATIONID}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -194,21 +226,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -500,93 +535,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="11" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="15" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="B1:D1">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($B$5:$B$62731,B1)+COUNTIF($B$1:$B$4,B1)&gt;1,NOT(ISBLANK(B1)))</formula>
     </cfRule>
